--- a/Code/results/ROC/ROC_AUC.thresholds.table.xlsx
+++ b/Code/results/ROC/ROC_AUC.thresholds.table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evanedelstein/Desktop/LAB/Raji_Summer2019_atom/Code/results/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/evanedelstein/Desktop/LAB/Raji_Summer2019_atom/Code/results/ROC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{6C530248-D728-CC49-BC06-0FE21E2F8565}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17FCC45B-4924-C24A-AB74-9F1736682C70}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16000"/>
+    <workbookView minimized="1" xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ROC.thresholds.table" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -996,8 +996,9 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:noFill/>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -2055,11 +2056,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
